--- a/StrategyAdmin/userexcel/amol.xlsx
+++ b/StrategyAdmin/userexcel/amol.xlsx
@@ -1,61 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EC042F57E0CAE6A270029E01B1F356003969AD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Kaas\StrategyAdmin\userexcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26929263-5BDB-45B0-B13A-686DBE98AF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="1125" windowWidth="20580" windowHeight="14130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Holdings" sheetId="1" r:id="rId1"/>
-    <sheet name="MPWizard" sheetId="2" r:id="rId2"/>
-    <sheet name="OldDTD" sheetId="3" r:id="rId3"/>
-    <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="3rdweekDTD" sheetId="5" r:id="rId5"/>
-    <sheet name="DTD" sheetId="6" r:id="rId6"/>
+    <sheet name="MPWizard" sheetId="2" r:id="rId1"/>
+    <sheet name="Holdings" sheetId="1" r:id="rId2"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId3"/>
+    <sheet name="DTD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="456">
-  <si>
-    <t>Tr.No</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Entry Date</t>
-  </si>
-  <si>
-    <t>Exit Date</t>
-  </si>
-  <si>
-    <t>Entry Price</t>
-  </si>
-  <si>
-    <t>Exit Price</t>
-  </si>
-  <si>
-    <t>Trade Points</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>PnL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margin Used </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="390">
   <si>
     <t>trade_id</t>
   </si>
@@ -726,106 +710,139 @@
     <t>BANKNIFTY28DEC23C47600</t>
   </si>
   <si>
-    <t>2023-12-26 10:23:00</t>
-  </si>
-  <si>
-    <t>2023-12-26 11:02:00</t>
-  </si>
-  <si>
     <t>MP231</t>
   </si>
   <si>
     <t>NIFTY28DEC23C21450</t>
   </si>
   <si>
-    <t>2023-12-26 10:48:00</t>
-  </si>
-  <si>
     <t>MP232</t>
   </si>
   <si>
     <t>NIFTY28DEC23C21550</t>
   </si>
   <si>
-    <t>2023-12-27 10:27:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 12:23:00</t>
-  </si>
-  <si>
     <t>MP233</t>
   </si>
   <si>
-    <t>2023-12-27 10:28:00</t>
-  </si>
-  <si>
     <t>MP234</t>
   </si>
   <si>
     <t>NIFTY28DEC23C21750</t>
   </si>
   <si>
-    <t>2023-12-28 12:28:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 12:51:00</t>
-  </si>
-  <si>
     <t>MP235</t>
   </si>
   <si>
     <t>FINNIFTY02JAN24C21500</t>
   </si>
   <si>
-    <t>2023-12-28 14:15:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 14:49:00</t>
-  </si>
-  <si>
     <t>MP236</t>
   </si>
   <si>
     <t>FINNIFTY02JAN24P21450</t>
   </si>
   <si>
-    <t>2023-12-29 10:16:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 10:47:00</t>
-  </si>
-  <si>
     <t>MP237</t>
   </si>
   <si>
     <t>BANKNIFTY03JAN24C48200</t>
   </si>
   <si>
-    <t>2023-12-29 10:30:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 10:54:00</t>
-  </si>
-  <si>
     <t>MP238</t>
   </si>
   <si>
-    <t>2024-01-01 10:38:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 11:18:00</t>
-  </si>
-  <si>
     <t>MP239</t>
   </si>
   <si>
     <t>BANKNIFTY03JAN24C48300</t>
   </si>
   <si>
-    <t>2024-01-01 10:41:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 15:01:00</t>
+    <t>MP240</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24C21600</t>
+  </si>
+  <si>
+    <t>MP241</t>
+  </si>
+  <si>
+    <t>BANKNIFTY03JAN24C47900</t>
+  </si>
+  <si>
+    <t>MP242</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24C21550</t>
+  </si>
+  <si>
+    <t>MP243</t>
+  </si>
+  <si>
+    <t>FINNIFTY09JAN24C21250</t>
+  </si>
+  <si>
+    <t>MP244</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24P21650</t>
+  </si>
+  <si>
+    <t>2024-01-04 10:15:00</t>
+  </si>
+  <si>
+    <t>2024-01-04 13:06:00</t>
+  </si>
+  <si>
+    <t>MP245</t>
+  </si>
+  <si>
+    <t>FINNIFTY09JAN24P21450</t>
+  </si>
+  <si>
+    <t>2024-01-04 10:21:00</t>
+  </si>
+  <si>
+    <t>2024-01-04 11:03:00</t>
+  </si>
+  <si>
+    <t>MP246</t>
+  </si>
+  <si>
+    <t>BANKNIFTY10JAN24P48200</t>
+  </si>
+  <si>
+    <t>2024-01-05 10:41:00</t>
+  </si>
+  <si>
+    <t>2024-01-05 11:09:00</t>
+  </si>
+  <si>
+    <t>MP247</t>
+  </si>
+  <si>
+    <t>FINNIFTY09JAN24P21500</t>
+  </si>
+  <si>
+    <t>2024-01-05 10:44:00</t>
+  </si>
+  <si>
+    <t>2024-01-05 11:12:00</t>
+  </si>
+  <si>
+    <t>transaction_type</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Deposit</t>
   </si>
   <si>
     <t>Sl NO</t>
@@ -846,21 +863,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Running Balance</t>
-  </si>
-  <si>
-    <t>04-Nov-23</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Opening Balance</t>
-  </si>
-  <si>
-    <t>₹15,000.00</t>
-  </si>
-  <si>
     <t>06-Nov-23</t>
   </si>
   <si>
@@ -873,15 +875,9 @@
     <t>-₹1.69</t>
   </si>
   <si>
-    <t>₹14,998.31</t>
-  </si>
-  <si>
     <t>-₹511.54</t>
   </si>
   <si>
-    <t>₹14,486.77</t>
-  </si>
-  <si>
     <t>07-Nov-23</t>
   </si>
   <si>
@@ -891,15 +887,9 @@
     <t>₹3,406.80</t>
   </si>
   <si>
-    <t>₹17,893.57</t>
-  </si>
-  <si>
     <t>₹2,940.96</t>
   </si>
   <si>
-    <t>₹20,834.53</t>
-  </si>
-  <si>
     <t>08-Nov-23</t>
   </si>
   <si>
@@ -909,15 +899,9 @@
     <t>-₹766.57</t>
   </si>
   <si>
-    <t>₹20,067.96</t>
-  </si>
-  <si>
     <t>-₹146.70</t>
   </si>
   <si>
-    <t>₹19,921.26</t>
-  </si>
-  <si>
     <t>09-Nov-23</t>
   </si>
   <si>
@@ -927,15 +911,9 @@
     <t>-₹526.98</t>
   </si>
   <si>
-    <t>₹19,394.28</t>
-  </si>
-  <si>
     <t>-₹6.16</t>
   </si>
   <si>
-    <t>₹19,388.12</t>
-  </si>
-  <si>
     <t>10-Nov-23</t>
   </si>
   <si>
@@ -945,454 +923,292 @@
     <t>₹915.39</t>
   </si>
   <si>
-    <t>₹20,303.51</t>
-  </si>
-  <si>
     <t>₹572.27</t>
   </si>
   <si>
-    <t>₹20,875.78</t>
-  </si>
-  <si>
-    <t>transaction_type</t>
-  </si>
-  <si>
-    <t>SI1</t>
-  </si>
-  <si>
-    <t>Stock Invested</t>
-  </si>
-  <si>
-    <t>11-Nov-23</t>
-  </si>
-  <si>
-    <t>₹21,017.56</t>
-  </si>
-  <si>
-    <t>-₹2,665.69</t>
-  </si>
-  <si>
-    <t>₹18,351.87</t>
-  </si>
-  <si>
     <t>13-Nov-23</t>
   </si>
   <si>
     <t>₹927.50</t>
   </si>
   <si>
-    <t>₹19,279.37</t>
-  </si>
-  <si>
     <t>₹682.75</t>
   </si>
   <si>
-    <t>₹19,962.12</t>
-  </si>
-  <si>
     <t>15-Nov-23</t>
   </si>
   <si>
     <t>-₹679.69</t>
   </si>
   <si>
-    <t>₹19,282.43</t>
-  </si>
-  <si>
     <t>-₹444.81</t>
   </si>
   <si>
-    <t>₹18,837.62</t>
-  </si>
-  <si>
     <t>16-Nov-23</t>
   </si>
   <si>
     <t>-₹699.08</t>
   </si>
   <si>
-    <t>₹18,138.54</t>
-  </si>
-  <si>
     <t>-₹1,010.46</t>
   </si>
   <si>
-    <t>₹17,128.08</t>
-  </si>
-  <si>
     <t>17-Nov-23</t>
   </si>
   <si>
     <t>-₹1.03</t>
   </si>
   <si>
-    <t>₹17,127.05</t>
-  </si>
-  <si>
-    <t>18-Nov-23</t>
-  </si>
-  <si>
-    <t>₹20,594.35</t>
-  </si>
-  <si>
     <t>20-Nov-23</t>
   </si>
   <si>
     <t>-₹170.23</t>
   </si>
   <si>
-    <t>₹20,424.12</t>
-  </si>
-  <si>
     <t>-₹227.30</t>
   </si>
   <si>
-    <t>₹20,196.82</t>
-  </si>
-  <si>
     <t>21-Nov-23</t>
   </si>
   <si>
     <t>-₹377.50</t>
   </si>
   <si>
-    <t>₹19,819.32</t>
-  </si>
-  <si>
     <t>₹471.07</t>
   </si>
   <si>
-    <t>₹20,290.39</t>
-  </si>
-  <si>
     <t>22-Nov-23</t>
   </si>
   <si>
     <t>-₹1,089.94</t>
   </si>
   <si>
-    <t>₹19,200.45</t>
-  </si>
-  <si>
     <t>-₹972.02</t>
   </si>
   <si>
-    <t>₹18,228.43</t>
-  </si>
-  <si>
     <t>23-Nov-23</t>
   </si>
   <si>
     <t>-₹1,243.95</t>
   </si>
   <si>
-    <t>₹16,041.09</t>
-  </si>
-  <si>
     <t>-₹604.04</t>
   </si>
   <si>
-    <t>₹15,437.05</t>
-  </si>
-  <si>
     <t>24-Nov-23</t>
   </si>
   <si>
     <t>₹362.71</t>
   </si>
   <si>
-    <t>₹15,799.76</t>
-  </si>
-  <si>
     <t>-₹427.85</t>
   </si>
   <si>
-    <t>₹15,371.91</t>
-  </si>
-  <si>
     <t>28-Nov-23</t>
   </si>
   <si>
     <t>₹2,098.64</t>
   </si>
   <si>
-    <t>₹17,470.55</t>
-  </si>
-  <si>
     <t>₹1.97</t>
   </si>
   <si>
-    <t>₹17,472.52</t>
-  </si>
-  <si>
     <t>29-Nov-23</t>
   </si>
   <si>
     <t>₹3,286.30</t>
   </si>
   <si>
-    <t>₹20,758.82</t>
-  </si>
-  <si>
     <t>₹5,500.79</t>
   </si>
   <si>
-    <t>₹26,259.61</t>
-  </si>
-  <si>
     <t>30-Nov-23</t>
   </si>
   <si>
     <t>-₹630.28</t>
   </si>
   <si>
-    <t>₹25,629.33</t>
-  </si>
-  <si>
     <t>₹174.69</t>
   </si>
   <si>
-    <t>₹25,804.02</t>
-  </si>
-  <si>
     <t>01-Dec-23</t>
   </si>
   <si>
     <t>-₹760.87</t>
   </si>
   <si>
-    <t>₹25,043.15</t>
-  </si>
-  <si>
     <t>-₹384.35</t>
   </si>
   <si>
-    <t>₹24,658.80</t>
-  </si>
-  <si>
     <t>04-Dec-23</t>
   </si>
   <si>
     <t>-₹775.33</t>
   </si>
   <si>
-    <t>₹23,883.47</t>
-  </si>
-  <si>
     <t>-₹735.73</t>
   </si>
   <si>
-    <t>₹23,147.74</t>
-  </si>
-  <si>
     <t>05-Dec-23</t>
   </si>
   <si>
     <t>-₹1,014.43</t>
   </si>
   <si>
-    <t>₹22,133.31</t>
-  </si>
-  <si>
     <t>₹1,096.23</t>
   </si>
   <si>
-    <t>₹23,229.54</t>
-  </si>
-  <si>
     <t>06-Dec-23</t>
   </si>
   <si>
     <t>-₹17.48</t>
   </si>
   <si>
-    <t>₹23,212.06</t>
-  </si>
-  <si>
     <t>₹442.92</t>
   </si>
   <si>
-    <t>₹23,654.98</t>
-  </si>
-  <si>
     <t>07-Dec-23</t>
   </si>
   <si>
     <t>₹891.18</t>
   </si>
   <si>
-    <t>₹24,546.16</t>
-  </si>
-  <si>
     <t>₹125.78</t>
   </si>
   <si>
-    <t>₹24,671.94</t>
-  </si>
-  <si>
     <t>08-Dec-23</t>
   </si>
   <si>
     <t>-₹236.50</t>
   </si>
   <si>
-    <t>₹24,435.44</t>
-  </si>
-  <si>
     <t>-₹655.57</t>
   </si>
   <si>
-    <t>₹23,779.87</t>
-  </si>
-  <si>
     <t>18-Dec-23</t>
   </si>
   <si>
     <t>-₹459.17</t>
   </si>
   <si>
-    <t>₹23,320.70</t>
-  </si>
-  <si>
     <t>-₹912.23</t>
   </si>
   <si>
-    <t>₹22,408.47</t>
-  </si>
-  <si>
     <t>19-Dec-23</t>
   </si>
   <si>
     <t>₹1,158.39</t>
   </si>
   <si>
-    <t>₹23,566.86</t>
-  </si>
-  <si>
     <t>₹1,232.07</t>
   </si>
   <si>
-    <t>₹24,798.93</t>
-  </si>
-  <si>
     <t>20-Dec-23</t>
   </si>
   <si>
     <t>-₹697.69</t>
   </si>
   <si>
-    <t>₹24,101.24</t>
-  </si>
-  <si>
     <t>-₹638.98</t>
   </si>
   <si>
-    <t>₹23,462.26</t>
-  </si>
-  <si>
     <t>21-Dec-23</t>
   </si>
   <si>
     <t>-₹1,049.00</t>
   </si>
   <si>
-    <t>₹22,413.26</t>
-  </si>
-  <si>
     <t>₹1,225.38</t>
   </si>
   <si>
-    <t>₹23,638.64</t>
-  </si>
-  <si>
     <t>22-Dec-23</t>
   </si>
   <si>
     <t>-₹408.95</t>
   </si>
   <si>
-    <t>₹23,229.69</t>
-  </si>
-  <si>
     <t>₹549.42</t>
   </si>
   <si>
-    <t>₹23,779.11</t>
-  </si>
-  <si>
     <t>26-Dec-23</t>
   </si>
   <si>
     <t>-₹193.21</t>
   </si>
   <si>
-    <t>₹23,585.90</t>
-  </si>
-  <si>
     <t>₹478.18</t>
   </si>
   <si>
-    <t>₹24,064.08</t>
-  </si>
-  <si>
     <t>27-Dec-23</t>
   </si>
   <si>
     <t>-₹560.98</t>
   </si>
   <si>
-    <t>₹23,503.10</t>
-  </si>
-  <si>
     <t>₹1,102.88</t>
   </si>
   <si>
-    <t>₹24,605.98</t>
-  </si>
-  <si>
     <t>28-Dec-23</t>
   </si>
   <si>
     <t>-₹1,224.59</t>
   </si>
   <si>
-    <t>₹23,381.39</t>
-  </si>
-  <si>
     <t>-₹739.46</t>
   </si>
   <si>
-    <t>₹22,641.93</t>
-  </si>
-  <si>
     <t>29-Dec-23</t>
   </si>
   <si>
     <t>-₹600.04</t>
   </si>
   <si>
-    <t>₹22,041.89</t>
-  </si>
-  <si>
     <t>-₹133.11</t>
   </si>
   <si>
-    <t>₹21,908.78</t>
-  </si>
-  <si>
     <t>01-Jan-24</t>
   </si>
   <si>
     <t>-₹30.90</t>
   </si>
   <si>
-    <t>₹21,877.88</t>
-  </si>
-  <si>
     <t>₹762.03</t>
   </si>
   <si>
-    <t>₹22,639.91</t>
+    <t>02-Jan-24</t>
+  </si>
+  <si>
+    <t>-₹1,059.77</t>
+  </si>
+  <si>
+    <t>-₹1,009.74</t>
+  </si>
+  <si>
+    <t>03-Jan-24</t>
+  </si>
+  <si>
+    <t>-₹300.29</t>
+  </si>
+  <si>
+    <t>-₹173.61</t>
+  </si>
+  <si>
+    <t>04-Jan-24</t>
+  </si>
+  <si>
+    <t>-₹1,251.15</t>
+  </si>
+  <si>
+    <t>-₹518.95</t>
+  </si>
+  <si>
+    <t>05-Jan-24</t>
+  </si>
+  <si>
+    <t>₹549.94</t>
+  </si>
+  <si>
+    <t>₹359.07</t>
   </si>
 </sst>
 </file>
@@ -1785,53 +1601,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1839,63 +1610,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4">
         <v>59.25</v>
@@ -1927,19 +1698,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>54.85</v>
@@ -1971,19 +1742,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="4">
         <v>23.7</v>
@@ -2015,19 +1786,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4">
         <v>143.65</v>
@@ -2059,19 +1830,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4">
         <v>121.9</v>
@@ -2103,19 +1874,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
         <v>63.45</v>
@@ -2147,19 +1918,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4">
         <v>84</v>
@@ -2191,19 +1962,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4">
         <v>316.64999999999998</v>
@@ -2235,19 +2006,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4">
         <v>244.7</v>
@@ -2279,19 +2050,19 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4">
         <v>56.2</v>
@@ -2323,19 +2094,19 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4">
         <v>13.85</v>
@@ -2367,19 +2138,19 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4">
         <v>202.75</v>
@@ -2411,19 +2182,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4">
         <v>44.95</v>
@@ -2455,19 +2226,19 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4">
         <v>38.75</v>
@@ -2499,19 +2270,19 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4">
         <v>32.15</v>
@@ -2543,19 +2314,19 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F17" s="4">
         <v>85.7</v>
@@ -2587,19 +2358,19 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4">
         <v>322.39999999999998</v>
@@ -2631,19 +2402,19 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4">
         <v>280.64999999999998</v>
@@ -2675,19 +2446,19 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4">
         <v>82.95</v>
@@ -2719,19 +2490,19 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4">
         <v>10.55</v>
@@ -2763,19 +2534,19 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F22" s="4">
         <v>76.25</v>
@@ -2807,19 +2578,19 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F23" s="4">
         <v>72.3</v>
@@ -2851,19 +2622,19 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4">
         <v>115.95</v>
@@ -2895,19 +2666,19 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F25" s="4">
         <v>41</v>
@@ -2939,19 +2710,19 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F26" s="4">
         <v>325.89999999999998</v>
@@ -2983,19 +2754,19 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F27" s="4">
         <v>234.6</v>
@@ -3027,19 +2798,19 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4">
         <v>58.95</v>
@@ -3071,19 +2842,19 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F29" s="4">
         <v>90</v>
@@ -3115,19 +2886,19 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F30" s="4">
         <v>162</v>
@@ -3159,19 +2930,19 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F31" s="4">
         <v>79.849999999999994</v>
@@ -3203,19 +2974,19 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F32" s="4">
         <v>119.25</v>
@@ -3247,19 +3018,19 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F33" s="4">
         <v>86.6</v>
@@ -3291,19 +3062,19 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4">
         <v>147.75</v>
@@ -3335,19 +3106,19 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F35" s="4">
         <v>102.15</v>
@@ -3379,19 +3150,19 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F36" s="4">
         <v>107.95</v>
@@ -3423,19 +3194,19 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F37" s="4">
         <v>192.65</v>
@@ -3467,19 +3238,19 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F38" s="4">
         <v>64.25</v>
@@ -3511,19 +3282,19 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F39" s="4">
         <v>240.6</v>
@@ -3555,19 +3326,19 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F40" s="4">
         <v>88.7</v>
@@ -3599,19 +3370,19 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F41" s="4">
         <v>81.7</v>
@@ -3643,19 +3414,19 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F42" s="4">
         <v>169.8</v>
@@ -3687,19 +3458,19 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F43" s="4">
         <v>142.15</v>
@@ -3731,19 +3502,19 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F44" s="4">
         <v>382.7</v>
@@ -3775,19 +3546,19 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F45" s="4">
         <v>107.15</v>
@@ -3819,19 +3590,19 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F46" s="4">
         <v>357.65</v>
@@ -3863,19 +3634,19 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F47" s="4">
         <v>86.1</v>
@@ -3907,19 +3678,19 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F48" s="4">
         <v>126.95</v>
@@ -3951,19 +3722,19 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F49" s="4">
         <v>132.1</v>
@@ -3995,19 +3766,19 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F50" s="4">
         <v>69.7</v>
@@ -4039,19 +3810,19 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F51" s="4">
         <v>46.15</v>
@@ -4083,19 +3854,19 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F52" s="4">
         <v>167.05</v>
@@ -4127,19 +3898,19 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F53" s="4">
         <v>137.5</v>
@@ -4171,19 +3942,19 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F54" s="4">
         <v>57</v>
@@ -4215,19 +3986,19 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F55" s="4">
         <v>184.55</v>
@@ -4259,19 +4030,19 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F56" s="4">
         <v>451.75</v>
@@ -4303,19 +4074,19 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>234</v>
+        <v>16</v>
+      </c>
+      <c r="D57" s="5">
+        <v>45286.432638888888</v>
+      </c>
+      <c r="E57" s="5">
+        <v>45286.459722222222</v>
       </c>
       <c r="F57" s="4">
         <v>387.55</v>
@@ -4347,19 +4118,19 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>237</v>
+        <v>16</v>
+      </c>
+      <c r="D58" s="5">
+        <v>45286.432638888888</v>
+      </c>
+      <c r="E58" s="5">
+        <v>45286.45</v>
       </c>
       <c r="F58" s="4">
         <v>122.2</v>
@@ -4391,19 +4162,19 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>241</v>
+        <v>16</v>
+      </c>
+      <c r="D59" s="5">
+        <v>45287.435416666667</v>
+      </c>
+      <c r="E59" s="5">
+        <v>45287.515972222223</v>
       </c>
       <c r="F59" s="4">
         <v>100</v>
@@ -4435,19 +4206,19 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>241</v>
+        <v>16</v>
+      </c>
+      <c r="D60" s="5">
+        <v>45287.436111111107</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45287.515972222223</v>
       </c>
       <c r="F60" s="4">
         <v>259.89999999999998</v>
@@ -4479,19 +4250,19 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>247</v>
+        <v>16</v>
+      </c>
+      <c r="D61" s="5">
+        <v>45288.519444444442</v>
+      </c>
+      <c r="E61" s="5">
+        <v>45288.535416666673</v>
       </c>
       <c r="F61" s="4">
         <v>50.95</v>
@@ -4523,19 +4294,19 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="3" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>251</v>
+        <v>16</v>
+      </c>
+      <c r="D62" s="5">
+        <v>45288.59375</v>
+      </c>
+      <c r="E62" s="5">
+        <v>45288.617361111108</v>
       </c>
       <c r="F62" s="4">
         <v>179.1</v>
@@ -4567,19 +4338,19 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>255</v>
+        <v>16</v>
+      </c>
+      <c r="D63" s="5">
+        <v>45289.427777777782</v>
+      </c>
+      <c r="E63" s="5">
+        <v>45289.449305555558</v>
       </c>
       <c r="F63" s="4">
         <v>107</v>
@@ -4611,19 +4382,19 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="D64" s="5">
+        <v>45289.4375</v>
+      </c>
+      <c r="E64" s="5">
+        <v>45289.45416666667</v>
       </c>
       <c r="F64" s="4">
         <v>418.25</v>
@@ -4655,19 +4426,19 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="3" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>262</v>
+        <v>16</v>
+      </c>
+      <c r="D65" s="5">
+        <v>45292.443055555559</v>
+      </c>
+      <c r="E65" s="5">
+        <v>45292.470833333333</v>
       </c>
       <c r="F65" s="4">
         <v>69.849999999999994</v>
@@ -4699,19 +4470,19 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>266</v>
+        <v>16</v>
+      </c>
+      <c r="D66" s="5">
+        <v>45292.445138888892</v>
+      </c>
+      <c r="E66" s="5">
+        <v>45292.625694444447</v>
       </c>
       <c r="F66" s="4">
         <v>324</v>
@@ -4739,6 +4510,415 @@
       </c>
       <c r="N66" s="4">
         <v>762.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="5">
+        <v>45293.434027777781</v>
+      </c>
+      <c r="E67" s="5">
+        <v>45293.442361111112</v>
+      </c>
+      <c r="F67" s="4">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="G67" s="4">
+        <v>110.2</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>-20.350000000000001</v>
+      </c>
+      <c r="K67" s="3">
+        <v>50</v>
+      </c>
+      <c r="L67" s="4">
+        <v>-1017.5</v>
+      </c>
+      <c r="M67" s="4">
+        <v>42.27</v>
+      </c>
+      <c r="N67" s="4">
+        <v>-1059.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="5">
+        <v>45293.435416666667</v>
+      </c>
+      <c r="E68" s="5">
+        <v>45293.487500000003</v>
+      </c>
+      <c r="F68" s="4">
+        <v>230</v>
+      </c>
+      <c r="G68" s="4">
+        <v>165.25</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>-64.75</v>
+      </c>
+      <c r="K68" s="3">
+        <v>15</v>
+      </c>
+      <c r="L68" s="4">
+        <v>-971.25</v>
+      </c>
+      <c r="M68" s="4">
+        <v>38.49</v>
+      </c>
+      <c r="N68" s="4">
+        <v>-1009.74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="5">
+        <v>45294.431250000001</v>
+      </c>
+      <c r="E69" s="5">
+        <v>45294.448611111111</v>
+      </c>
+      <c r="F69" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G69" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>50</v>
+      </c>
+      <c r="L69" s="4">
+        <v>-260</v>
+      </c>
+      <c r="M69" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="N69" s="4">
+        <v>-300.29000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="5">
+        <v>45294.431250000001</v>
+      </c>
+      <c r="E70" s="5">
+        <v>45294.504166666673</v>
+      </c>
+      <c r="F70" s="4">
+        <v>168.05</v>
+      </c>
+      <c r="G70" s="4">
+        <v>164.8</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="K70" s="3">
+        <v>40</v>
+      </c>
+      <c r="L70" s="4">
+        <v>-130</v>
+      </c>
+      <c r="M70" s="4">
+        <v>43.61</v>
+      </c>
+      <c r="N70" s="4">
+        <v>-173.61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" s="4">
+        <v>36.4</v>
+      </c>
+      <c r="G71" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>-24.3</v>
+      </c>
+      <c r="K71" s="3">
+        <v>50</v>
+      </c>
+      <c r="L71" s="4">
+        <v>-1215</v>
+      </c>
+      <c r="M71" s="4">
+        <v>36.15</v>
+      </c>
+      <c r="N71" s="4">
+        <v>-1251.1500000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="4">
+        <v>123.35</v>
+      </c>
+      <c r="G72" s="4">
+        <v>111.4</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>-11.95</v>
+      </c>
+      <c r="K72" s="3">
+        <v>40</v>
+      </c>
+      <c r="L72" s="4">
+        <v>-478</v>
+      </c>
+      <c r="M72" s="4">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="N72" s="4">
+        <v>-518.95000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F73" s="4">
+        <v>263.75</v>
+      </c>
+      <c r="G73" s="4">
+        <v>303.2</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="K73" s="3">
+        <v>15</v>
+      </c>
+      <c r="L73" s="4">
+        <v>591.75</v>
+      </c>
+      <c r="M73" s="4">
+        <v>41.81</v>
+      </c>
+      <c r="N73" s="4">
+        <v>549.94000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F74" s="4">
+        <v>90.95</v>
+      </c>
+      <c r="G74" s="4">
+        <v>100.95</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>10</v>
+      </c>
+      <c r="K74" s="3">
+        <v>40</v>
+      </c>
+      <c r="L74" s="4">
+        <v>400</v>
+      </c>
+      <c r="M74" s="4">
+        <v>40.93</v>
+      </c>
+      <c r="N74" s="4">
+        <v>359.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4748,284 +4928,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45261</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-2451.5100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45277</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>308</v>
+      <c r="D3" s="3">
+        <v>529605</v>
       </c>
     </row>
   </sheetData>
@@ -5035,1439 +4988,1490 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45241</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-2665.69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>275</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" t="s">
         <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" t="s">
         <v>292</v>
       </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" t="s">
         <v>280</v>
       </c>
-      <c r="F8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
         <v>280</v>
       </c>
-      <c r="F9" t="s">
-        <v>352</v>
-      </c>
-      <c r="G9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
         <v>280</v>
       </c>
-      <c r="F10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" t="s">
-        <v>357</v>
-      </c>
-      <c r="G11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" t="s">
-        <v>362</v>
-      </c>
-      <c r="G13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" t="s">
-        <v>364</v>
-      </c>
-      <c r="G14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" t="s">
-        <v>369</v>
-      </c>
-      <c r="G16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
+      <c r="B33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>371</v>
-      </c>
-      <c r="C17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" t="s">
-        <v>374</v>
-      </c>
-      <c r="G18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" t="s">
-        <v>379</v>
-      </c>
-      <c r="G20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>381</v>
-      </c>
-      <c r="C21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>386</v>
-      </c>
-      <c r="C23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" t="s">
-        <v>387</v>
-      </c>
-      <c r="G23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>386</v>
-      </c>
-      <c r="C24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C25" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" t="s">
-        <v>392</v>
-      </c>
-      <c r="G25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>391</v>
-      </c>
-      <c r="C26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" t="s">
-        <v>394</v>
-      </c>
-      <c r="G26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" t="s">
-        <v>280</v>
-      </c>
-      <c r="F27" t="s">
-        <v>397</v>
-      </c>
-      <c r="G27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" t="s">
-        <v>399</v>
-      </c>
-      <c r="G28" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>401</v>
-      </c>
-      <c r="C29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D29" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" t="s">
-        <v>402</v>
-      </c>
-      <c r="G29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C30" t="s">
-        <v>304</v>
-      </c>
-      <c r="D30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" t="s">
-        <v>404</v>
-      </c>
-      <c r="G30" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" t="s">
-        <v>407</v>
-      </c>
-      <c r="G31" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>406</v>
-      </c>
-      <c r="C32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" t="s">
-        <v>409</v>
-      </c>
-      <c r="G32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>411</v>
-      </c>
-      <c r="C33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" t="s">
-        <v>412</v>
-      </c>
-      <c r="G33" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>411</v>
-      </c>
-      <c r="C34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" t="s">
-        <v>280</v>
-      </c>
-      <c r="F34" t="s">
-        <v>414</v>
-      </c>
-      <c r="G34" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>51</v>
-      </c>
       <c r="B35" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="C35" t="s">
         <v>292</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>417</v>
-      </c>
-      <c r="G35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s">
         <v>292</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" t="s">
         <v>280</v>
       </c>
-      <c r="F36" t="s">
-        <v>419</v>
-      </c>
-      <c r="G36" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>342</v>
+      </c>
+      <c r="C43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>357</v>
+      </c>
+      <c r="C53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D37" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C57" t="s">
         <v>280</v>
       </c>
-      <c r="F37" t="s">
-        <v>422</v>
-      </c>
-      <c r="G37" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D38" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" t="s">
         <v>280</v>
       </c>
-      <c r="F38" t="s">
-        <v>424</v>
-      </c>
-      <c r="G38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" t="s">
-        <v>304</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D58" t="s">
         <v>223</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E58" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" t="s">
+        <v>276</v>
+      </c>
+      <c r="F62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>375</v>
+      </c>
+      <c r="C66" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>378</v>
+      </c>
+      <c r="C67" t="s">
         <v>280</v>
       </c>
-      <c r="F39" t="s">
-        <v>427</v>
-      </c>
-      <c r="G39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>426</v>
-      </c>
-      <c r="C40" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" t="s">
         <v>280</v>
       </c>
-      <c r="F40" t="s">
-        <v>429</v>
-      </c>
-      <c r="G40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" t="s">
-        <v>286</v>
-      </c>
-      <c r="D41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" t="s">
-        <v>432</v>
-      </c>
-      <c r="G41" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>431</v>
-      </c>
-      <c r="C42" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" t="s">
-        <v>434</v>
-      </c>
-      <c r="G42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>436</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D68" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>381</v>
+      </c>
+      <c r="C69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C70" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" t="s">
+        <v>276</v>
+      </c>
+      <c r="F71" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" t="s">
         <v>292</v>
       </c>
-      <c r="D43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" t="s">
-        <v>280</v>
-      </c>
-      <c r="F43" t="s">
-        <v>437</v>
-      </c>
-      <c r="G43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>436</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D73" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" t="s">
+        <v>276</v>
+      </c>
+      <c r="F73" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" t="s">
         <v>292</v>
       </c>
-      <c r="D44" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" t="s">
-        <v>439</v>
-      </c>
-      <c r="G44" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>441</v>
-      </c>
-      <c r="C45" t="s">
-        <v>298</v>
-      </c>
-      <c r="D45" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" t="s">
-        <v>442</v>
-      </c>
-      <c r="G45" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C46" t="s">
-        <v>298</v>
-      </c>
-      <c r="D46" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" t="s">
-        <v>280</v>
-      </c>
-      <c r="F46" t="s">
-        <v>444</v>
-      </c>
-      <c r="G46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>446</v>
-      </c>
-      <c r="C47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" t="s">
-        <v>280</v>
-      </c>
-      <c r="F47" t="s">
-        <v>447</v>
-      </c>
-      <c r="G47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>446</v>
-      </c>
-      <c r="C48" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" t="s">
-        <v>280</v>
-      </c>
-      <c r="F48" t="s">
-        <v>449</v>
-      </c>
-      <c r="G48" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>65</v>
-      </c>
-      <c r="B49" t="s">
-        <v>451</v>
-      </c>
-      <c r="C49" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" t="s">
-        <v>260</v>
-      </c>
-      <c r="E49" t="s">
-        <v>280</v>
-      </c>
-      <c r="F49" t="s">
-        <v>452</v>
-      </c>
-      <c r="G49" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>451</v>
-      </c>
-      <c r="C50" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" t="s">
-        <v>280</v>
-      </c>
-      <c r="F50" t="s">
-        <v>454</v>
-      </c>
-      <c r="G50" t="s">
-        <v>455</v>
+      <c r="D74" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" t="s">
+        <v>276</v>
+      </c>
+      <c r="F74" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
